--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4294de9f4405424a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6f498eb734af44fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfed78ec8c3e4280"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49b2de9a28e6436b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc906f12a1e884670"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdce61af039674b2c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6f498eb734af44fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbc7d3dd71f90426a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49b2de9a28e6436b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea575736469549fb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdce61af039674b2c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd1ac92947a2f4bcd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbc7d3dd71f90426a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R62293f3225bc462c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea575736469549fb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27ca74b3091b4381"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd1ac92947a2f4bcd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4316436af23c42e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R62293f3225bc462c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raff023cd64124922"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27ca74b3091b4381"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2641fbd1f41041a7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4316436af23c42e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a2c5e38c20d4a6d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raff023cd64124922"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra4d8a4e7179847c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2641fbd1f41041a7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b96290e23f54c86"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a2c5e38c20d4a6d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2465c197d81847ae"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra4d8a4e7179847c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdf4aa93b7039460d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b96290e23f54c86"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa7361cbe0634f7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2465c197d81847ae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bee7cf6f1ef4397"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdf4aa93b7039460d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbc537e3ebe0b44e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa7361cbe0634f7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba533bfff6414e70"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bee7cf6f1ef4397"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b792e3239434da1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbc537e3ebe0b44e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcdbb55eb04644c5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba533bfff6414e70"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e4951a72a254f2f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b792e3239434da1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ecc1719a05449bb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcdbb55eb04644c5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R19e51bbd9f0c4503"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e4951a72a254f2f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf62be7e5176f4f7e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ecc1719a05449bb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a6aaea4d571471e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R19e51bbd9f0c4503"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R97871f8ee8c945f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf62be7e5176f4f7e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c69831f70584f7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a6aaea4d571471e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R40f93142faf64e1e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R97871f8ee8c945f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rabf1613a763f4d0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c69831f70584f7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51d5145b8f014270"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R40f93142faf64e1e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6c6ad6c5a13745e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rabf1613a763f4d0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R46059dec86cd47eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51d5145b8f014270"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb85aec479868491e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6c6ad6c5a13745e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04a195246c5f4172"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/051_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R46059dec86cd47eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R591af81510b5426f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -160,7 +160,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb85aec479868491e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rca6c234a75564c87"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -229,6 +229,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04a195246c5f4172"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R64984a0506d74531"/>
 </x:worksheet>
 </file>